--- a/robotSurfaceArea.xlsx
+++ b/robotSurfaceArea.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t xml:space="preserve">Folder1</t>
   </si>
@@ -37,6 +37,12 @@
     <t xml:space="preserve">Photo Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locomotion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total Length</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t xml:space="preserve">harvard</t>
   </si>
   <si>
+    <t xml:space="preserve">Robots</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wen et al.</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t xml:space="preserve">mitc</t>
   </si>
   <si>
+    <t xml:space="preserve">SubCarangiform</t>
+  </si>
+  <si>
     <t xml:space="preserve">Epps et al.</t>
   </si>
   <si>
@@ -106,6 +118,9 @@
     <t xml:space="preserve">nyuiDevice</t>
   </si>
   <si>
+    <t xml:space="preserve">Thunniform</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phamduy</t>
   </si>
   <si>
@@ -122,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">NRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labriform</t>
   </si>
   <si>
     <t xml:space="preserve">Ramamurti and Geder</t>
@@ -238,27 +256,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="93.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="6.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="39.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="39.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -301,171 +321,199 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.588</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>0.548</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>0.08</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>0.95</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>2.79</v>
       </c>
-      <c r="K2" s="1" t="n">
-        <f aca="false">0.395*F2^2</f>
+      <c r="M2" s="1" t="n">
+        <f aca="false">0.395*H2^2</f>
         <v>0.13656888</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>19</v>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>0.148</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.1265</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="J3" s="1" t="n">
         <v>0.0254</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="K3" s="1" t="n">
         <v>0.0432</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="L3" s="1" t="n">
         <v>0.068</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="M3" s="1" t="n">
         <v>0.0128</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>24</v>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>0.066</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="I4" s="1" t="n">
         <v>0.0452</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="L4" s="1" t="n">
         <v>0.00895</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="M4" s="1" t="n">
         <v>0.0032</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="0"/>
+      <c r="N4" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>0.43815</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.43815</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <v>0.089</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>0.178</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="L5" s="1" t="n">
         <v>2.9</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="M5" s="1" t="n">
         <v>0.224</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="0"/>
+      <c r="N5" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" display="https://doi.org/10.1007/s00348-009-0684-8"/>
+    <hyperlink ref="O3" r:id="rId1" display="https://doi.org/10.1007/s00348-009-0684-8"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
